--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,57 +534,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>56.6790985463752</v>
+        <v>57.98241433333334</v>
       </c>
       <c r="H2">
-        <v>56.6790985463752</v>
+        <v>173.947243</v>
       </c>
       <c r="I2">
-        <v>0.1571007063443236</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="J2">
-        <v>0.1571007063443236</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0631642908851044</v>
+        <v>0.3224113333333333</v>
       </c>
       <c r="N2">
-        <v>0.0631642908851044</v>
+        <v>0.9672339999999999</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.4436436023218001</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.4436436023218</v>
       </c>
       <c r="Q2">
-        <v>3.580095067688741</v>
+        <v>18.69418751509578</v>
       </c>
       <c r="R2">
-        <v>3.580095067688741</v>
+        <v>168.247687635862</v>
       </c>
       <c r="S2">
-        <v>0.1571007063443236</v>
+        <v>0.06980955828097883</v>
       </c>
       <c r="T2">
-        <v>0.1571007063443236</v>
+        <v>0.06980955828097882</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>76.9956639376132</v>
+        <v>57.98241433333334</v>
       </c>
       <c r="H3">
-        <v>76.9956639376132</v>
+        <v>173.947243</v>
       </c>
       <c r="I3">
-        <v>0.2134132952053236</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="J3">
-        <v>0.2134132952053236</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.0631642908851044</v>
+        <v>0.1073546666666667</v>
       </c>
       <c r="N3">
-        <v>0.0631642908851044</v>
+        <v>0.322064</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1477218885380044</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1477218885380044</v>
       </c>
       <c r="Q3">
-        <v>4.863376513847143</v>
+        <v>6.224682763283555</v>
       </c>
       <c r="R3">
-        <v>4.863376513847143</v>
+        <v>56.022144869552</v>
       </c>
       <c r="S3">
-        <v>0.2134132952053236</v>
+        <v>0.02324478417653346</v>
       </c>
       <c r="T3">
-        <v>0.2134132952053236</v>
+        <v>0.02324478417653346</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>103.303175488341</v>
+        <v>57.98241433333334</v>
       </c>
       <c r="H4">
-        <v>103.303175488341</v>
+        <v>173.947243</v>
       </c>
       <c r="I4">
-        <v>0.2863313329436832</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="J4">
-        <v>0.2863313329436832</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.0631642908851044</v>
+        <v>0.1384086666666667</v>
       </c>
       <c r="N4">
-        <v>0.0631642908851044</v>
+        <v>0.415226</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.1904527326558741</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.1904527326558741</v>
       </c>
       <c r="Q4">
-        <v>6.525071825900558</v>
+        <v>8.025268657990889</v>
       </c>
       <c r="R4">
-        <v>6.525071825900558</v>
+        <v>72.227417921918</v>
       </c>
       <c r="S4">
-        <v>0.2863313329436832</v>
+        <v>0.02996869800563019</v>
       </c>
       <c r="T4">
-        <v>0.2863313329436832</v>
+        <v>0.02996869800563019</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>90.45033587412711</v>
+        <v>57.98241433333334</v>
       </c>
       <c r="H5">
-        <v>90.45033587412711</v>
+        <v>173.947243</v>
       </c>
       <c r="I5">
-        <v>0.250706380647182</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="J5">
-        <v>0.250706380647182</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.0631642908851044</v>
+        <v>0.1585603333333333</v>
       </c>
       <c r="N5">
-        <v>0.0631642908851044</v>
+        <v>0.475681</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.2181817764843215</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.2181817764843214</v>
       </c>
       <c r="Q5">
-        <v>5.713231325808759</v>
+        <v>9.193710944164778</v>
       </c>
       <c r="R5">
-        <v>5.713231325808759</v>
+        <v>82.74339849748301</v>
       </c>
       <c r="S5">
-        <v>0.250706380647182</v>
+        <v>0.0343320028996647</v>
       </c>
       <c r="T5">
-        <v>0.250706380647182</v>
+        <v>0.0343320028996647</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,52 +782,982 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.3536721121406</v>
+        <v>77.026568</v>
       </c>
       <c r="H6">
-        <v>33.3536721121406</v>
+        <v>231.079704</v>
       </c>
       <c r="I6">
-        <v>0.09244828485948747</v>
+        <v>0.2090378451309208</v>
       </c>
       <c r="J6">
-        <v>0.09244828485948747</v>
+        <v>0.2090378451309208</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0631642908851044</v>
+        <v>0.3224113333333333</v>
       </c>
       <c r="N6">
-        <v>0.0631642908851044</v>
+        <v>0.9672339999999999</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.4436436023218001</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.4436436023218</v>
       </c>
       <c r="Q6">
-        <v>2.106761047377644</v>
+        <v>24.83423849097067</v>
       </c>
       <c r="R6">
-        <v>2.106761047377644</v>
+        <v>223.508146418736</v>
       </c>
       <c r="S6">
-        <v>0.09244828485948747</v>
+        <v>0.09273830263546824</v>
       </c>
       <c r="T6">
-        <v>0.09244828485948747</v>
+        <v>0.09273830263546823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>77.026568</v>
+      </c>
+      <c r="H7">
+        <v>231.079704</v>
+      </c>
+      <c r="I7">
+        <v>0.2090378451309208</v>
+      </c>
+      <c r="J7">
+        <v>0.2090378451309208</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1073546666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.322064</v>
+      </c>
+      <c r="O7">
+        <v>0.1477218885380044</v>
+      </c>
+      <c r="P7">
+        <v>0.1477218885380044</v>
+      </c>
+      <c r="Q7">
+        <v>8.269161532117332</v>
+      </c>
+      <c r="R7">
+        <v>74.42245378905599</v>
+      </c>
+      <c r="S7">
+        <v>0.03087946525865451</v>
+      </c>
+      <c r="T7">
+        <v>0.03087946525865451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>77.026568</v>
+      </c>
+      <c r="H8">
+        <v>231.079704</v>
+      </c>
+      <c r="I8">
+        <v>0.2090378451309208</v>
+      </c>
+      <c r="J8">
+        <v>0.2090378451309208</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1384086666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.415226</v>
+      </c>
+      <c r="O8">
+        <v>0.1904527326558741</v>
+      </c>
+      <c r="P8">
+        <v>0.1904527326558741</v>
+      </c>
+      <c r="Q8">
+        <v>10.66114457478933</v>
+      </c>
+      <c r="R8">
+        <v>95.95030117310399</v>
+      </c>
+      <c r="S8">
+        <v>0.03981182883367927</v>
+      </c>
+      <c r="T8">
+        <v>0.03981182883367927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>77.026568</v>
+      </c>
+      <c r="H9">
+        <v>231.079704</v>
+      </c>
+      <c r="I9">
+        <v>0.2090378451309208</v>
+      </c>
+      <c r="J9">
+        <v>0.2090378451309208</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.1585603333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.475681</v>
+      </c>
+      <c r="O9">
+        <v>0.2181817764843215</v>
+      </c>
+      <c r="P9">
+        <v>0.2181817764843214</v>
+      </c>
+      <c r="Q9">
+        <v>12.21335829760267</v>
+      </c>
+      <c r="R9">
+        <v>109.920224678424</v>
+      </c>
+      <c r="S9">
+        <v>0.04560824840311876</v>
+      </c>
+      <c r="T9">
+        <v>0.04560824840311876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>103.359665</v>
+      </c>
+      <c r="H10">
+        <v>310.078995</v>
+      </c>
+      <c r="I10">
+        <v>0.2805016789149148</v>
+      </c>
+      <c r="J10">
+        <v>0.2805016789149148</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.3224113333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.9672339999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.4436436023218001</v>
+      </c>
+      <c r="P10">
+        <v>0.4436436023218</v>
+      </c>
+      <c r="Q10">
+        <v>33.32432740553666</v>
+      </c>
+      <c r="R10">
+        <v>299.9189466498299</v>
+      </c>
+      <c r="S10">
+        <v>0.1244427752911257</v>
+      </c>
+      <c r="T10">
+        <v>0.1244427752911257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>103.359665</v>
+      </c>
+      <c r="H11">
+        <v>310.078995</v>
+      </c>
+      <c r="I11">
+        <v>0.2805016789149148</v>
+      </c>
+      <c r="J11">
+        <v>0.2805016789149148</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1073546666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.322064</v>
+      </c>
+      <c r="O11">
+        <v>0.1477218885380044</v>
+      </c>
+      <c r="P11">
+        <v>0.1477218885380044</v>
+      </c>
+      <c r="Q11">
+        <v>11.09614238285333</v>
+      </c>
+      <c r="R11">
+        <v>99.86528144567998</v>
+      </c>
+      <c r="S11">
+        <v>0.04143623774739216</v>
+      </c>
+      <c r="T11">
+        <v>0.04143623774739216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>103.359665</v>
+      </c>
+      <c r="H12">
+        <v>310.078995</v>
+      </c>
+      <c r="I12">
+        <v>0.2805016789149148</v>
+      </c>
+      <c r="J12">
+        <v>0.2805016789149148</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1384086666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.415226</v>
+      </c>
+      <c r="O12">
+        <v>0.1904527326558741</v>
+      </c>
+      <c r="P12">
+        <v>0.1904527326558741</v>
+      </c>
+      <c r="Q12">
+        <v>14.30587341976333</v>
+      </c>
+      <c r="R12">
+        <v>128.75286077787</v>
+      </c>
+      <c r="S12">
+        <v>0.05342231126390611</v>
+      </c>
+      <c r="T12">
+        <v>0.0534223112639061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>103.359665</v>
+      </c>
+      <c r="H13">
+        <v>310.078995</v>
+      </c>
+      <c r="I13">
+        <v>0.2805016789149148</v>
+      </c>
+      <c r="J13">
+        <v>0.2805016789149148</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1585603333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.475681</v>
+      </c>
+      <c r="O13">
+        <v>0.2181817764843215</v>
+      </c>
+      <c r="P13">
+        <v>0.2181817764843214</v>
+      </c>
+      <c r="Q13">
+        <v>16.38874293562166</v>
+      </c>
+      <c r="R13">
+        <v>147.498686420595</v>
+      </c>
+      <c r="S13">
+        <v>0.06120035461249085</v>
+      </c>
+      <c r="T13">
+        <v>0.06120035461249083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>92.04397066666667</v>
+      </c>
+      <c r="H14">
+        <v>276.131912</v>
+      </c>
+      <c r="I14">
+        <v>0.2497926856283365</v>
+      </c>
+      <c r="J14">
+        <v>0.2497926856283365</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3224113333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.9672339999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.4436436023218001</v>
+      </c>
+      <c r="P14">
+        <v>0.4436436023218</v>
+      </c>
+      <c r="Q14">
+        <v>29.67601930793422</v>
+      </c>
+      <c r="R14">
+        <v>267.084173771408</v>
+      </c>
+      <c r="S14">
+        <v>0.1108189268857921</v>
+      </c>
+      <c r="T14">
+        <v>0.1108189268857921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>92.04397066666667</v>
+      </c>
+      <c r="H15">
+        <v>276.131912</v>
+      </c>
+      <c r="I15">
+        <v>0.2497926856283365</v>
+      </c>
+      <c r="J15">
+        <v>0.2497926856283365</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1073546666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.322064</v>
+      </c>
+      <c r="O15">
+        <v>0.1477218885380044</v>
+      </c>
+      <c r="P15">
+        <v>0.1477218885380044</v>
+      </c>
+      <c r="Q15">
+        <v>9.881349789596444</v>
+      </c>
+      <c r="R15">
+        <v>88.93214810636799</v>
+      </c>
+      <c r="S15">
+        <v>0.0368998472639979</v>
+      </c>
+      <c r="T15">
+        <v>0.0368998472639979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>92.04397066666667</v>
+      </c>
+      <c r="H16">
+        <v>276.131912</v>
+      </c>
+      <c r="I16">
+        <v>0.2497926856283365</v>
+      </c>
+      <c r="J16">
+        <v>0.2497926856283365</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1384086666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.415226</v>
+      </c>
+      <c r="O16">
+        <v>0.1904527326558741</v>
+      </c>
+      <c r="P16">
+        <v>0.1904527326558741</v>
+      </c>
+      <c r="Q16">
+        <v>12.73968325467911</v>
+      </c>
+      <c r="R16">
+        <v>114.657149292112</v>
+      </c>
+      <c r="S16">
+        <v>0.04757369957536637</v>
+      </c>
+      <c r="T16">
+        <v>0.04757369957536636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>92.04397066666667</v>
+      </c>
+      <c r="H17">
+        <v>276.131912</v>
+      </c>
+      <c r="I17">
+        <v>0.2497926856283365</v>
+      </c>
+      <c r="J17">
+        <v>0.2497926856283365</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1585603333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.475681</v>
+      </c>
+      <c r="O17">
+        <v>0.2181817764843215</v>
+      </c>
+      <c r="P17">
+        <v>0.2181817764843214</v>
+      </c>
+      <c r="Q17">
+        <v>14.59452267023022</v>
+      </c>
+      <c r="R17">
+        <v>131.350704032072</v>
+      </c>
+      <c r="S17">
+        <v>0.05450021190318009</v>
+      </c>
+      <c r="T17">
+        <v>0.05450021190318008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>38.06883066666667</v>
+      </c>
+      <c r="H18">
+        <v>114.206492</v>
+      </c>
+      <c r="I18">
+        <v>0.1033127469630208</v>
+      </c>
+      <c r="J18">
+        <v>0.1033127469630208</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.3224113333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.9672339999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.4436436023218001</v>
+      </c>
+      <c r="P18">
+        <v>0.4436436023218</v>
+      </c>
+      <c r="Q18">
+        <v>12.27382245368089</v>
+      </c>
+      <c r="R18">
+        <v>110.464402083128</v>
+      </c>
+      <c r="S18">
+        <v>0.04583403922843515</v>
+      </c>
+      <c r="T18">
+        <v>0.04583403922843515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>38.06883066666667</v>
+      </c>
+      <c r="H19">
+        <v>114.206492</v>
+      </c>
+      <c r="I19">
+        <v>0.1033127469630208</v>
+      </c>
+      <c r="J19">
+        <v>0.1033127469630208</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.1073546666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.322064</v>
+      </c>
+      <c r="O19">
+        <v>0.1477218885380044</v>
+      </c>
+      <c r="P19">
+        <v>0.1477218885380044</v>
+      </c>
+      <c r="Q19">
+        <v>4.086866626609778</v>
+      </c>
+      <c r="R19">
+        <v>36.781799639488</v>
+      </c>
+      <c r="S19">
+        <v>0.01526155409142642</v>
+      </c>
+      <c r="T19">
+        <v>0.01526155409142642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>38.06883066666667</v>
+      </c>
+      <c r="H20">
+        <v>114.206492</v>
+      </c>
+      <c r="I20">
+        <v>0.1033127469630208</v>
+      </c>
+      <c r="J20">
+        <v>0.1033127469630208</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1384086666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.415226</v>
+      </c>
+      <c r="O20">
+        <v>0.1904527326558741</v>
+      </c>
+      <c r="P20">
+        <v>0.1904527326558741</v>
+      </c>
+      <c r="Q20">
+        <v>5.269056094132444</v>
+      </c>
+      <c r="R20">
+        <v>47.421504847192</v>
+      </c>
+      <c r="S20">
+        <v>0.01967619497729217</v>
+      </c>
+      <c r="T20">
+        <v>0.01967619497729217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>38.06883066666667</v>
+      </c>
+      <c r="H21">
+        <v>114.206492</v>
+      </c>
+      <c r="I21">
+        <v>0.1033127469630208</v>
+      </c>
+      <c r="J21">
+        <v>0.1033127469630208</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1585603333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.475681</v>
+      </c>
+      <c r="O21">
+        <v>0.2181817764843215</v>
+      </c>
+      <c r="P21">
+        <v>0.2181817764843214</v>
+      </c>
+      <c r="Q21">
+        <v>6.036206480116889</v>
+      </c>
+      <c r="R21">
+        <v>54.32585832105201</v>
+      </c>
+      <c r="S21">
+        <v>0.02254095866586707</v>
+      </c>
+      <c r="T21">
+        <v>0.02254095866586706</v>
       </c>
     </row>
   </sheetData>
